--- a/dataset05-cropping-table-babb02.1,babb03-whole_organism-filled.xlsx
+++ b/dataset05-cropping-table-babb02.1,babb03-whole_organism-filled.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dancer\Documents\imageProcessTif\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8B7D640-2911-4CEC-9FBA-6525363053FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A344C316-AAFF-4F93-82AE-BF2C4DAAABDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="2505" windowWidth="21840" windowHeight="13740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="45">
   <si>
     <t>dataset</t>
   </si>
@@ -134,6 +134,27 @@
   </si>
   <si>
     <t>babb03</t>
+  </si>
+  <si>
+    <t>id01</t>
+  </si>
+  <si>
+    <t>id02</t>
+  </si>
+  <si>
+    <t>id03</t>
+  </si>
+  <si>
+    <t>id04</t>
+  </si>
+  <si>
+    <t>id05</t>
+  </si>
+  <si>
+    <t>id06</t>
+  </si>
+  <si>
+    <t>id07</t>
   </si>
 </sst>
 </file>
@@ -162,7 +183,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -185,15 +206,25 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -499,7 +530,7 @@
   <dimension ref="A1:AE14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M4" sqref="M4"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -618,8 +649,8 @@
       <c r="F2" t="s">
         <v>36</v>
       </c>
-      <c r="G2">
-        <v>1</v>
+      <c r="G2" s="2" t="s">
+        <v>38</v>
       </c>
       <c r="H2">
         <v>166</v>
@@ -713,8 +744,8 @@
       <c r="F3" t="s">
         <v>36</v>
       </c>
-      <c r="G3">
-        <v>2</v>
+      <c r="G3" s="2" t="s">
+        <v>39</v>
       </c>
       <c r="H3">
         <v>340</v>
@@ -808,8 +839,8 @@
       <c r="F4" t="s">
         <v>36</v>
       </c>
-      <c r="G4">
-        <v>3</v>
+      <c r="G4" s="2" t="s">
+        <v>40</v>
       </c>
       <c r="H4">
         <v>164</v>
@@ -903,8 +934,8 @@
       <c r="F5" t="s">
         <v>36</v>
       </c>
-      <c r="G5">
-        <v>4</v>
+      <c r="G5" s="2" t="s">
+        <v>41</v>
       </c>
       <c r="H5">
         <v>250</v>
@@ -998,8 +1029,8 @@
       <c r="F6" t="s">
         <v>36</v>
       </c>
-      <c r="G6">
-        <v>5</v>
+      <c r="G6" s="2" t="s">
+        <v>42</v>
       </c>
       <c r="H6">
         <v>145</v>
@@ -1093,8 +1124,8 @@
       <c r="F7" t="s">
         <v>36</v>
       </c>
-      <c r="G7">
-        <v>6</v>
+      <c r="G7" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="H7">
         <v>167</v>
@@ -1188,8 +1219,8 @@
       <c r="F8" t="s">
         <v>36</v>
       </c>
-      <c r="G8">
-        <v>1</v>
+      <c r="G8" s="2" t="s">
+        <v>38</v>
       </c>
       <c r="H8">
         <v>257</v>
@@ -1283,8 +1314,8 @@
       <c r="F9" t="s">
         <v>36</v>
       </c>
-      <c r="G9">
-        <v>2</v>
+      <c r="G9" s="2" t="s">
+        <v>39</v>
       </c>
       <c r="H9">
         <v>409</v>
@@ -1378,8 +1409,8 @@
       <c r="F10" t="s">
         <v>36</v>
       </c>
-      <c r="G10">
-        <v>3</v>
+      <c r="G10" s="2" t="s">
+        <v>40</v>
       </c>
       <c r="H10">
         <v>233</v>
@@ -1473,8 +1504,8 @@
       <c r="F11" t="s">
         <v>36</v>
       </c>
-      <c r="G11">
-        <v>4</v>
+      <c r="G11" s="2" t="s">
+        <v>41</v>
       </c>
       <c r="H11">
         <v>251</v>
@@ -1568,8 +1599,8 @@
       <c r="F12" t="s">
         <v>36</v>
       </c>
-      <c r="G12">
-        <v>5</v>
+      <c r="G12" s="2" t="s">
+        <v>42</v>
       </c>
       <c r="H12">
         <v>299</v>
@@ -1663,8 +1694,8 @@
       <c r="F13" t="s">
         <v>36</v>
       </c>
-      <c r="G13">
-        <v>6</v>
+      <c r="G13" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="H13">
         <v>280</v>
@@ -1758,8 +1789,8 @@
       <c r="F14" t="s">
         <v>36</v>
       </c>
-      <c r="G14">
-        <v>7</v>
+      <c r="G14" s="2" t="s">
+        <v>44</v>
       </c>
       <c r="H14">
         <v>246</v>
